--- a/biology/Botanique/Lagerstroemia/Lagerstroemia.xlsx
+++ b/biology/Botanique/Lagerstroemia/Lagerstroemia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagerstroemia est un genre de plantes de la famille des Lythraceae.
 Il doit son nom à l'homme d'affaires suédois Magnus Lagerström (1691-1759).
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il comprend des arbres ou des arbrisseaux originaires de l'Asie tropicale. Ils sont à rameaux tétragones, à feuilles opposées ou alternes au sommet, très entières, à fleurs pourpres ou blanches bibractéolées, paniculées. Ce genre comprend quarante espèces, dont vingt-sept sont indigènes au Viêt Nam. Ce sont souvent de grands arbres, à l'écorce lisse et tombant par plaques, dont le bois est utilisé pour sa ténacité et sa souplesse.
 </t>
@@ -543,15 +557,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Lagerstroemia a été décrit  par le naturaliste suédois Carl von Linné en 1758, il l'a dédié à son compatriote Magnus Lagerström.
-Synonyme
-Homotypique
-Tsjinkin Adans. 1763[1]
-Murtughas Kuntze, 1891[2]
-Taxinomie
-Liste d'espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lagerstroemia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lagerstroemia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Homotypique
+Tsjinkin Adans. 1763
+Murtughas Kuntze, 1891</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lagerstroemia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lagerstroemia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste d'espèces
 Lagerstroemia ×amabilis Makino (Lagerstroemia indica × Lagerstroemia subcostata)
 Lagerstroemia angustifolia Pierre ex Laness.
 Lagerstroemia archeriana F.M.Bailey
@@ -590,69 +675,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lagerstroemia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lagerstroemia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lagerstroemia angustifolia, le bang-lang fournit un bois qui remplace celui du noyer pour les crosses de fusil et les hélices d'avions anciens.
-Lagerstroemia indica, le lilas d'été, est planté dans le midi de la France pour ses nombreuses fleurs lilacées.
-Lagerstroemia speciosa est la plus ornementale de ses espèces, avec de grandes et belles fleurs[3].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lagerstroemia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lagerstroemia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>En France</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présence du Lagerstroemia a longtemps été réduite au Sud-Ouest. Deux familles de pépiniéristes, les Desmartis à Bergerac[4] et les Pouzergues à Cahors se sont intéressées à cette plante et ont assuré son développement[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -674,10 +696,79 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lagerstroemia angustifolia, le bang-lang fournit un bois qui remplace celui du noyer pour les crosses de fusil et les hélices d'avions anciens.
+Lagerstroemia indica, le lilas d'été, est planté dans le midi de la France pour ses nombreuses fleurs lilacées.
+Lagerstroemia speciosa est la plus ornementale de ses espèces, avec de grandes et belles fleurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lagerstroemia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lagerstroemia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présence du Lagerstroemia a longtemps été réduite au Sud-Ouest. Deux familles de pépiniéristes, les Desmartis à Bergerac et les Pouzergues à Cahors se sont intéressées à cette plante et ont assuré son développement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lagerstroemia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lagerstroemia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Adans., Fam. 2: 401. Jul-Aug 1763.
